--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>CS301 - Data Structures</t>
   </si>
@@ -42,13 +43,160 @@
   </si>
   <si>
     <t>MGT301 - Principles of Marketing</t>
+  </si>
+  <si>
+    <t>Introduction     </t>
+  </si>
+  <si>
+    <t>List Implemetation     </t>
+  </si>
+  <si>
+    <t>Linked List     </t>
+  </si>
+  <si>
+    <t>Linked List And Its Types     </t>
+  </si>
+  <si>
+    <t>ADT and Stack     </t>
+  </si>
+  <si>
+    <t>Uses of Stack     </t>
+  </si>
+  <si>
+    <t>Infix and Postfix Expression     </t>
+  </si>
+  <si>
+    <t>Implementation of Stack     </t>
+  </si>
+  <si>
+    <t>Queues     </t>
+  </si>
+  <si>
+    <t>Priority Queues     </t>
+  </si>
+  <si>
+    <t>Binary Tree     </t>
+  </si>
+  <si>
+    <t>Implemetation of Binary Tree     </t>
+  </si>
+  <si>
+    <t>Binary Search Tree     </t>
+  </si>
+  <si>
+    <t>Recursion     </t>
+  </si>
+  <si>
+    <t>Level-order Traversal of a Binary Tree      Current Lesson</t>
+  </si>
+  <si>
+    <t>Deleting a Node From BST     </t>
+  </si>
+  <si>
+    <t>Reference Variables     </t>
+  </si>
+  <si>
+    <t>Usage of const keyword     </t>
+  </si>
+  <si>
+    <t>Degenerate BST     </t>
+  </si>
+  <si>
+    <t>AVL Tree [1/2]     </t>
+  </si>
+  <si>
+    <t>AVL Tree [2/2]     </t>
+  </si>
+  <si>
+    <t>AVL Tree Rotations [1/2]     </t>
+  </si>
+  <si>
+    <t>AVL Tree Rotations [2/2]     </t>
+  </si>
+  <si>
+    <t>Uses of Binary Trees     </t>
+  </si>
+  <si>
+    <t>Expression Tree     </t>
+  </si>
+  <si>
+    <t>Huffman Encoding     </t>
+  </si>
+  <si>
+    <t>Properties of Binary Tree     </t>
+  </si>
+  <si>
+    <t>Inorder Traversal in Threaded Trees     </t>
+  </si>
+  <si>
+    <t>Heap [1/2]     </t>
+  </si>
+  <si>
+    <t>Heap [2/2]     </t>
+  </si>
+  <si>
+    <t>Implementation of Heap     </t>
+  </si>
+  <si>
+    <t>Methods of Heap     </t>
+  </si>
+  <si>
+    <t>Uses of Heap &amp; Disjoint Set ADT     </t>
+  </si>
+  <si>
+    <t>Equivalence Relations     </t>
+  </si>
+  <si>
+    <t>Dynamic Equivalence Problem     </t>
+  </si>
+  <si>
+    <t>Union and Find Operations of Disjoint Set ADT     </t>
+  </si>
+  <si>
+    <t>Image Segmentation &amp; Maze Generation     </t>
+  </si>
+  <si>
+    <t>Table ADT     </t>
+  </si>
+  <si>
+    <t>Searching an Array: Binary Search     </t>
+  </si>
+  <si>
+    <t>Skip List     </t>
+  </si>
+  <si>
+    <t>Skip List (cont..) &amp; Hashing     </t>
+  </si>
+  <si>
+    <t>Collision Resolution Methods in Hashing     </t>
+  </si>
+  <si>
+    <t>Applications of Hashing     </t>
+  </si>
+  <si>
+    <t>Sorting     </t>
+  </si>
+  <si>
+    <t>Sorting And Course Overview     </t>
+  </si>
+  <si>
+    <t>Pre assessment     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lessons </t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +204,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -73,18 +252,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4D4D4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD4D4D4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD4D4D4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD4D4D4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4D4D4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD4D4D4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4D4D4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD4D4D4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD4D4D4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD4D4D4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -395,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -437,4 +733,476 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="javascript:__doPostBack('gvLessons$ctl02$lbtnLesson','')"/>
+    <hyperlink ref="B3" r:id="rId2" display="javascript:__doPostBack('gvLessons$ctl03$lbtnLesson','')"/>
+    <hyperlink ref="B4" r:id="rId3" display="javascript:__doPostBack('gvLessons$ctl04$lbtnLesson','')"/>
+    <hyperlink ref="B5" r:id="rId4" display="javascript:__doPostBack('gvLessons$ctl05$lbtnLesson','')"/>
+    <hyperlink ref="B6" r:id="rId5" display="javascript:__doPostBack('gvLessons$ctl06$lbtnLesson','')"/>
+    <hyperlink ref="B7" r:id="rId6" display="javascript:__doPostBack('gvLessons$ctl07$lbtnLesson','')"/>
+    <hyperlink ref="B8" r:id="rId7" display="javascript:__doPostBack('gvLessons$ctl08$lbtnLesson','')"/>
+    <hyperlink ref="B9" r:id="rId8" display="javascript:__doPostBack('gvLessons$ctl09$lbtnLesson','')"/>
+    <hyperlink ref="B10" r:id="rId9" display="javascript:__doPostBack('gvLessons$ctl10$lbtnLesson','')"/>
+    <hyperlink ref="B11" r:id="rId10" display="javascript:__doPostBack('gvLessons$ctl11$lbtnLesson','')"/>
+    <hyperlink ref="B12" r:id="rId11" display="javascript:__doPostBack('gvLessons$ctl12$lbtnLesson','')"/>
+    <hyperlink ref="B13" r:id="rId12" display="javascript:__doPostBack('gvLessons$ctl13$lbtnLesson','')"/>
+    <hyperlink ref="B14" r:id="rId13" display="javascript:__doPostBack('gvLessons$ctl14$lbtnLesson','')"/>
+    <hyperlink ref="B15" r:id="rId14" display="javascript:__doPostBack('gvLessons$ctl15$lbtnLesson','')"/>
+    <hyperlink ref="B16" r:id="rId15" display="javascript:__doPostBack('gvLessons$ctl16$lbtnLesson','')"/>
+    <hyperlink ref="B17" r:id="rId16" display="javascript:__doPostBack('gvLessons$ctl17$lbtnLesson','')"/>
+    <hyperlink ref="B18" r:id="rId17" display="javascript:__doPostBack('gvLessons$ctl18$lbtnLesson','')"/>
+    <hyperlink ref="B19" r:id="rId18" display="javascript:__doPostBack('gvLessons$ctl19$lbtnLesson','')"/>
+    <hyperlink ref="B20" r:id="rId19" display="javascript:__doPostBack('gvLessons$ctl20$lbtnLesson','')"/>
+    <hyperlink ref="B21" r:id="rId20" display="javascript:__doPostBack('gvLessons$ctl21$lbtnLesson','')"/>
+    <hyperlink ref="B22" r:id="rId21" display="javascript:__doPostBack('gvLessons$ctl22$lbtnLesson','')"/>
+    <hyperlink ref="B23" r:id="rId22" display="javascript:__doPostBack('gvLessons$ctl23$lbtnLesson','')"/>
+    <hyperlink ref="B24" r:id="rId23" display="javascript:__doPostBack('gvLessons$ctl24$lbtnLesson','')"/>
+    <hyperlink ref="B25" r:id="rId24" display="javascript:__doPostBack('gvLessons$ctl25$lbtnLesson','')"/>
+    <hyperlink ref="B26" r:id="rId25" display="javascript:__doPostBack('gvLessons$ctl26$lbtnLesson','')"/>
+    <hyperlink ref="B27" r:id="rId26" display="javascript:__doPostBack('gvLessons$ctl27$lbtnLesson','')"/>
+    <hyperlink ref="B28" r:id="rId27" display="javascript:__doPostBack('gvLessons$ctl28$lbtnLesson','')"/>
+    <hyperlink ref="B29" r:id="rId28" display="javascript:__doPostBack('gvLessons$ctl29$lbtnLesson','')"/>
+    <hyperlink ref="B30" r:id="rId29" display="javascript:__doPostBack('gvLessons$ctl30$lbtnLesson','')"/>
+    <hyperlink ref="B31" r:id="rId30" display="javascript:__doPostBack('gvLessons$ctl31$lbtnLesson','')"/>
+    <hyperlink ref="B32" r:id="rId31" display="javascript:__doPostBack('gvLessons$ctl32$lbtnLesson','')"/>
+    <hyperlink ref="B33" r:id="rId32" display="javascript:__doPostBack('gvLessons$ctl33$lbtnLesson','')"/>
+    <hyperlink ref="B34" r:id="rId33" display="javascript:__doPostBack('gvLessons$ctl34$lbtnLesson','')"/>
+    <hyperlink ref="B35" r:id="rId34" display="javascript:__doPostBack('gvLessons$ctl35$lbtnLesson','')"/>
+    <hyperlink ref="B36" r:id="rId35" display="javascript:__doPostBack('gvLessons$ctl36$lbtnLesson','')"/>
+    <hyperlink ref="B37" r:id="rId36" display="javascript:__doPostBack('gvLessons$ctl37$lbtnLesson','')"/>
+    <hyperlink ref="B38" r:id="rId37" display="javascript:__doPostBack('gvLessons$ctl38$lbtnLesson','')"/>
+    <hyperlink ref="B39" r:id="rId38" display="javascript:__doPostBack('gvLessons$ctl39$lbtnLesson','')"/>
+    <hyperlink ref="B40" r:id="rId39" display="javascript:__doPostBack('gvLessons$ctl40$lbtnLesson','')"/>
+    <hyperlink ref="B41" r:id="rId40" display="javascript:__doPostBack('gvLessons$ctl41$lbtnLesson','')"/>
+    <hyperlink ref="B42" r:id="rId41" display="javascript:__doPostBack('gvLessons$ctl42$lbtnLesson','')"/>
+    <hyperlink ref="B43" r:id="rId42" display="javascript:__doPostBack('gvLessons$ctl43$lbtnLesson','')"/>
+    <hyperlink ref="B44" r:id="rId43" display="javascript:__doPostBack('gvLessons$ctl44$lbtnLesson','')"/>
+    <hyperlink ref="B45" r:id="rId44" display="javascript:__doPostBack('gvLessons$ctl45$lbtnLesson','')"/>
+    <hyperlink ref="B46" r:id="rId45" display="javascript:__doPostBack('gvLessons$ctl46$lbtnLesson','')"/>
+    <hyperlink ref="B47" r:id="rId46" display="javascript:__doPostBack('gvLessons$ctl47$lbtnLesson','')"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+</worksheet>
 </file>